--- a/ExcelFiles/LlojetEsherbimitFilter.xlsx
+++ b/ExcelFiles/LlojetEsherbimitFilter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\IdeaProjects\TestimTemp\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9C316-7B52-4E7C-A27B-1DA2679D1047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83190BE-01C6-4FA2-B4D8-AE51795A11FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1920" yWindow="-14655" windowWidth="15225" windowHeight="8970" xr2:uid="{ECFBA7A2-F2B3-4998-8097-A7B426BDB62D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Llojet e sherbimit</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Shërbime me vulë</t>
+  </si>
+  <si>
+    <t>ExpectedSherbim</t>
   </si>
 </sst>
 </file>
@@ -440,51 +443,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9302DF3A-65BF-42E8-940B-4B75E972D7DE}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>

--- a/ExcelFiles/LlojetEsherbimitFilter.xlsx
+++ b/ExcelFiles/LlojetEsherbimitFilter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\IdeaProjects\TestimTemp\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83190BE-01C6-4FA2-B4D8-AE51795A11FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{5C2BF79A-7194-4474-973F-2C318ABB2954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1920" yWindow="-14655" windowWidth="15225" windowHeight="8970" xr2:uid="{ECFBA7A2-F2B3-4998-8097-A7B426BDB62D}"/>
+    <workbookView xWindow="-1485" yWindow="-14220" windowWidth="15225" windowHeight="8970" xr2:uid="{ECFBA7A2-F2B3-4998-8097-A7B426BDB62D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Llojet e sherbimit</t>
   </si>
@@ -63,13 +64,31 @@
   </si>
   <si>
     <t>ExpectedSherbim</t>
+  </si>
+  <si>
+    <t>Dokumentacion shoqërues dhe kthim përgjigje nga SQDNE</t>
+  </si>
+  <si>
+    <t>Shërbim me vulë</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentacion shoqërues pa monitorim dhe kthim përgjigje nga SQDNE	</t>
+  </si>
+  <si>
+    <t>Dokumentacion shoqërues pa monitorim dhe kthim përgjigje nga backend</t>
+  </si>
+  <si>
+    <t>Shërbime konsultim të dhënash</t>
+  </si>
+  <si>
+    <t>Kthim përgjigje nga Backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +104,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6C7293"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,9 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,18 +477,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9302DF3A-65BF-42E8-940B-4B75E972D7DE}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="69.88671875" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,42 +497,82 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>